--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure10.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure10.xlsx
@@ -34,37 +34,37 @@
     <t>readmitted</t>
   </si>
   <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>diabetesmed</t>
   </si>
   <si>
     <t>admission_source_id</t>
   </si>
   <si>
-    <t>insulin</t>
+    <t>race</t>
   </si>
   <si>
-    <t>admission_type_id</t>
-  </si>
-  <si>
-    <t>diabetesmed</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>race</t>
+    <t>diag_1</t>
   </si>
   <si>
     <t>max_glu_serum</t>
   </si>
   <si>
-    <t>diag_1</t>
+    <t>change</t>
   </si>
   <si>
     <t>a1cresult</t>
-  </si>
-  <si>
-    <t>change</t>
   </si>
   <si>
     <t>discharge_disposition_id</t>
@@ -82,13 +82,13 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>num_lab_procedures</t>
   </si>
   <si>
     <t>number_diagnoses</t>
   </si>
   <si>
-    <t>num_lab_procedures</t>
+    <t>num_medications</t>
   </si>
   <si>
     <t>num_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.304186234388473</v>
+        <v>1.306015576280159</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.29741715637885</v>
+        <v>1.296382133662827</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.241034971180768</v>
+        <v>1.242253675971434</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -583,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>1.184430699255628</v>
+        <v>1.186747882119149</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -600,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>1.178910729646047</v>
+        <v>1.183938090319507</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -617,7 +617,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.169667579710048</v>
+        <v>1.16949535490251</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.165961889595337</v>
+        <v>1.164852892520252</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.164518995492275</v>
+        <v>1.164796785503929</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1.163981960557949</v>
+        <v>1.164669969958784</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>1.162691640914242</v>
+        <v>1.161419338924662</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1.162074453245048</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.154700538379252</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.154700538379251</v>
+        <v>1.146653746697239</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1.154700538379251</v>
+        <v>1.132174095189508</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>1.132526648776498</v>
+        <v>1.132124352953954</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.096455912867579</v>
+        <v>1.097751392768688</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9807149174535049</v>
+        <v>0.9807066780240608</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9799877002970533</v>
+        <v>0.980458054983872</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9790521130199762</v>
+        <v>0.9787096123613095</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9784208567617835</v>
+        <v>0.9776317206967958</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9724955020614109</v>
+        <v>0.9669612578406277</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9667291930425079</v>
+        <v>0.9667613012799147</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9660573757619854</v>
+        <v>0.966605360477762</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.965524579879931</v>
+        <v>0.9659283374063703</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9653358126461359</v>
+        <v>0.9657187121457785</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.964895814351846</v>
+        <v>0.9654340379001549</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -991,7 +991,7 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9647779611543265</v>
+        <v>0.9653063653716623</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1008,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9645962967862404</v>
+        <v>0.9651952389717305</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9345098232777148</v>
+        <v>0.9359412017763816</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.733948997178691</v>
+        <v>0.8272617532043159</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7148116611777616</v>
+        <v>0.8150413990172126</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.708637553804862</v>
+        <v>0.7630276520101383</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.6940345670909434</v>
+        <v>0.733948997178691</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.673607828348278</v>
+        <v>0.650377811205331</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>0.5869022612420183</v>
+        <v>0.6065245012396374</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -1161,7 +1161,7 @@
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5814691205097121</v>
+        <v>0.5869022612420183</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5685663810561927</v>
+        <v>0.554714563532851</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.5635773136718069</v>
+        <v>0.5438052866979093</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,7 +1203,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -1212,7 +1212,7 @@
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5547001962252291</v>
+        <v>0.5437149461664322</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5305269245327269</v>
+        <v>0.520268895382286</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5262348115842175</v>
+        <v>0.5049876546296165</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,7 +1254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5252184168775897</v>
+        <v>0.4935481167928245</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.5055250296034367</v>
+        <v>0.4724923027552659</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4920824918292634</v>
+        <v>0.4712414332508487</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E50">
-        <v>0.4884500086981308</v>
+        <v>0.4624346574898838</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4880711008692505</v>
+        <v>0.4610112019472001</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4771187236136979</v>
+        <v>0.4595230001120464</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4712414332508487</v>
+        <v>0.4432445109256249</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,7 +1373,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -1382,7 +1382,7 @@
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4616103466664636</v>
+        <v>0.4392245358790797</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4610112019472001</v>
+        <v>0.4371005726021252</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4480620839084176</v>
+        <v>0.4343324632636716</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4413084822984925</v>
+        <v>0.4251629564163962</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1450,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4343324632636716</v>
+        <v>0.4212603915161233</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>0.4309066795526431</v>
+        <v>0.4191394182045819</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4190581774617468</v>
+        <v>0.4161251892882395</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>0.3995538202738515</v>
+        <v>0.4139831101090297</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1512,13 +1512,13 @@
         <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>0.3978804965698906</v>
+        <v>0.4025548832937723</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1529,13 +1529,13 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
       </c>
       <c r="E63">
-        <v>0.3917247450213849</v>
+        <v>0.3995538202738515</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3907401992303193</v>
+        <v>0.3942670038352569</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
       </c>
       <c r="E65">
-        <v>0.3825427632223676</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,7 +1577,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
@@ -1586,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="E66">
-        <v>0.378301189755747</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -1603,7 +1603,7 @@
         <v>28</v>
       </c>
       <c r="E67">
-        <v>0.3768255472409918</v>
+        <v>0.3913608555004491</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1614,13 +1614,13 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <v>0.3723805161567861</v>
+        <v>0.3909857104474698</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -1637,7 +1637,7 @@
         <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3709404387783404</v>
+        <v>0.3757316012122096</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3654888259600418</v>
+        <v>0.3753215821383477</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0.3631058272528684</v>
+        <v>0.3707172014538216</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E72">
-        <v>0.3544587784792833</v>
+        <v>0.3575826020229112</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
         <v>27</v>
       </c>
       <c r="E73">
-        <v>0.3498285100979472</v>
+        <v>0.3544587784792833</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E74">
-        <v>0.3496834013599213</v>
+        <v>0.3520558551478608</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,7 +1730,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
@@ -1739,7 +1739,7 @@
         <v>28</v>
       </c>
       <c r="E75">
-        <v>0.3438918221816087</v>
+        <v>0.3370414850428884</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1750,13 +1750,13 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E76">
-        <v>0.3178877656956106</v>
+        <v>0.321520080368167</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.317289578095347</v>
+        <v>0.320697682032222</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>0.3143348011530991</v>
+        <v>0.3162644577575215</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>0.3141163466102496</v>
+        <v>0.315583862013148</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E80">
-        <v>0.3110409169369789</v>
+        <v>0.3130913358656687</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,7 +1832,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>0.3107277331329326</v>
+        <v>0.3091363657791703</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>0.3052643488740548</v>
+        <v>0.3075979034227884</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,7 +1883,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -1892,7 +1892,7 @@
         <v>26</v>
       </c>
       <c r="E84">
-        <v>0.3039707370872067</v>
+        <v>0.3069319105540669</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
         <v>28</v>
       </c>
       <c r="E85">
-        <v>0.3039196992279207</v>
+        <v>0.3015981423134471</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
         <v>26</v>
       </c>
       <c r="E86">
-        <v>0.3003479612420317</v>
+        <v>0.3014017907259614</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E87">
-        <v>0.2956561979945413</v>
+        <v>0.2955196865522042</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1954,13 +1954,13 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E88">
-        <v>0.2906002580010216</v>
+        <v>0.2931509468262711</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E89">
-        <v>0.2863097647206544</v>
+        <v>0.2927748349248602</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,7 +1985,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
@@ -1994,7 +1994,7 @@
         <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2827793791476857</v>
+        <v>0.2856742149985191</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2822692189325827</v>
+        <v>0.281268516451677</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
         <v>28</v>
       </c>
       <c r="E92">
-        <v>0.279012981944746</v>
+        <v>0.2777227119537683</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
         <v>26</v>
       </c>
       <c r="E93">
-        <v>0.2764754997723067</v>
+        <v>0.277244818856697</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E94">
-        <v>0.2720363855560753</v>
+        <v>0.2726093036049022</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E95">
-        <v>0.2679796152471546</v>
+        <v>0.2704680010040583</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,7 +2087,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
@@ -2096,7 +2096,7 @@
         <v>26</v>
       </c>
       <c r="E96">
-        <v>0.2660608261902993</v>
+        <v>0.2679790802483717</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E97">
-        <v>0.2653132149185964</v>
+        <v>0.2676585754576702</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>0.2648551113412096</v>
+        <v>0.2665392469833908</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
         <v>29</v>
       </c>
       <c r="E99">
-        <v>0.2580994143076909</v>
+        <v>0.2656126751262871</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E100">
-        <v>0.2580741321765306</v>
+        <v>0.2648591314556547</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
         <v>27</v>
       </c>
       <c r="E101">
-        <v>0.2571167291568254</v>
+        <v>0.2633624044877343</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2553120718144506</v>
+        <v>0.2592524126944339</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103">
-        <v>0.2552936615953811</v>
+        <v>0.2592249292961014</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
       <c r="E104">
-        <v>0.255137374164338</v>
+        <v>0.2586974862440855</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
         <v>26</v>
       </c>
       <c r="E105">
-        <v>0.2547750846525711</v>
+        <v>0.257378188772241</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2544809352759745</v>
+        <v>0.2542838405939036</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E107">
-        <v>0.2543160211885984</v>
+        <v>0.2540812142879406</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E108">
-        <v>0.253129476175791</v>
+        <v>0.254074217094012</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
         <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2530154645398294</v>
+        <v>0.2508164804797298</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E110">
-        <v>0.2523402808197115</v>
+        <v>0.2504290335602897</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2471588388240669</v>
+        <v>0.2420312730738958</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>0.2465346788114096</v>
+        <v>0.2403001306914751</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2439899939154678</v>
+        <v>0.2388125479515402</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E114">
-        <v>0.2373893725971611</v>
+        <v>0.2377964642586165</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2413,13 +2413,13 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E115">
-        <v>0.2368854648022486</v>
+        <v>0.2366193677801925</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
         <v>22</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E116">
-        <v>0.2343030452088269</v>
+        <v>0.2330685020570169</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E117">
-        <v>0.2318046415925853</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E118">
-        <v>0.2297547831659346</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2481,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
         <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2281762585544302</v>
+        <v>0.2294749407104278</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
       </c>
       <c r="E120">
-        <v>0.2275936696983505</v>
+        <v>0.2292035668002668</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.226378398127301</v>
+        <v>0.2276522559391742</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2532,13 +2532,13 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2258722269738337</v>
+        <v>0.2273191614945506</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2549,13 +2549,13 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2256995877939775</v>
+        <v>0.2272466711424854</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2566,13 +2566,13 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2256791832868529</v>
+        <v>0.2262065894158924</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E125">
-        <v>0.2250149207330068</v>
+        <v>0.2261012729145893</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2249025930288457</v>
+        <v>0.2255863072834154</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2246705251137566</v>
+        <v>0.2253613805775713</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
       </c>
       <c r="E128">
-        <v>0.2242717972991488</v>
+        <v>0.2242970327935455</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.2238493966331624</v>
+        <v>0.2242818274445266</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2668,13 +2668,13 @@
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2236328986846472</v>
+        <v>0.2239472395131726</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2691,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2232802092977412</v>
+        <v>0.2238558169798804</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E132">
-        <v>0.2223957348139357</v>
+        <v>0.2209514150466669</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2211285184797033</v>
+        <v>0.2207961010907626</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
         <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2211024083604824</v>
+        <v>0.2206768409135509</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2753,13 +2753,13 @@
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E135">
-        <v>0.2209410980668123</v>
+        <v>0.2202293435860423</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2776,7 +2776,7 @@
         <v>28</v>
       </c>
       <c r="E136">
-        <v>0.2208140047992238</v>
+        <v>0.2198373241172804</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2787,13 +2787,13 @@
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
       <c r="E137">
-        <v>0.2197823470182763</v>
+        <v>0.2195492732775634</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>0.2191066749269493</v>
+        <v>0.2177739133500904</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E139">
-        <v>0.2186768137507506</v>
+        <v>0.2177566233548665</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E140">
-        <v>0.2171479666711663</v>
+        <v>0.2175632078044449</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2855,13 +2855,13 @@
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2159694038687075</v>
+        <v>0.217189502261164</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E142">
-        <v>0.2153225203269404</v>
+        <v>0.216836383342249</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>0.214853193236379</v>
+        <v>0.2152853236086837</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E144">
-        <v>0.2144074271401135</v>
+        <v>0.2143808099208258</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D145" t="s">
         <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2134446627556272</v>
+        <v>0.2135791052829351</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
         <v>26</v>
       </c>
       <c r="E146">
-        <v>0.2134308220570642</v>
+        <v>0.2127501286738072</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
         <v>28</v>
       </c>
       <c r="E147">
-        <v>0.2095822399609701</v>
+        <v>0.2126799675131621</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
       </c>
       <c r="E148">
-        <v>0.2085584727121512</v>
+        <v>0.211679518772893</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2072448842385871</v>
+        <v>0.2106262112528138</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E150">
-        <v>0.2067214090008132</v>
+        <v>0.2103174115750006</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E151">
-        <v>0.2061564199706104</v>
+        <v>0.208433217782216</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3042,13 +3042,13 @@
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E152">
-        <v>0.2055594102596441</v>
+        <v>0.2081944990901907</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2053267822350098</v>
+        <v>0.2079394368297272</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>0.2047065262876636</v>
+        <v>0.2077716164073473</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
         <v>29</v>
       </c>
       <c r="E155">
-        <v>0.2046208475206832</v>
+        <v>0.2075245687770248</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,7 +3107,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
         <v>20</v>
@@ -3116,7 +3116,7 @@
         <v>29</v>
       </c>
       <c r="E156">
-        <v>0.2046201989412294</v>
+        <v>0.2057952082008697</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2044852794902965</v>
+        <v>0.2050559049794334</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E158">
-        <v>0.2041494629554684</v>
+        <v>0.202026374363229</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E159">
-        <v>0.203975719196245</v>
+        <v>0.2018703140340963</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E160">
-        <v>0.2038268623623533</v>
+        <v>0.2010593814313184</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2036928512890978</v>
+        <v>0.2004983281415186</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E162">
-        <v>0.2033579101169439</v>
+        <v>0.1988555365488622</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3229,13 +3229,13 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E163">
-        <v>0.2011972886233502</v>
+        <v>0.1988265846284955</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0.2008754258547399</v>
+        <v>0.1987032964605003</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D165" t="s">
         <v>28</v>
       </c>
       <c r="E165">
-        <v>0.2007104004223123</v>
+        <v>0.1980108196521613</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E166">
-        <v>0.2004089277813844</v>
+        <v>0.1973380837028021</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
       </c>
       <c r="E167">
-        <v>0.1995833478910395</v>
+        <v>0.1967895914178069</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>0.1987175413446689</v>
+        <v>0.1967293082949542</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0.1983458433443999</v>
+        <v>0.1964917147303251</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E170">
-        <v>0.1974588800345185</v>
+        <v>0.1955866569364691</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E171">
-        <v>0.1963650433082091</v>
+        <v>0.1951381619003462</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>0.196149817600457</v>
+        <v>0.1947532902000827</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1961161351381841</v>
+        <v>0.1945451567369261</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E174">
-        <v>0.1961161351381841</v>
+        <v>0.1902851787115532</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>0.1953880735066741</v>
+        <v>0.1870786153444192</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E176">
-        <v>0.1945013715689993</v>
+        <v>0.1821060461265675</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3467,13 +3467,13 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E177">
-        <v>0.1944775491193112</v>
+        <v>0.1821060461265675</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1937766939407949</v>
+        <v>0.1817504427254894</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E179">
-        <v>0.192782852815714</v>
+        <v>0.1812488003888925</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E180">
-        <v>0.1927136679932723</v>
+        <v>0.1799985399380456</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E181">
-        <v>0.1915177191681474</v>
+        <v>0.1786881995720729</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E182">
-        <v>0.1912760199147726</v>
+        <v>0.178584946119019</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E183">
-        <v>0.189187532453243</v>
+        <v>0.1766541181509363</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E184">
-        <v>0.1876516972260112</v>
+        <v>0.1765262606289739</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3603,13 +3603,13 @@
         <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D185" t="s">
         <v>28</v>
       </c>
       <c r="E185">
-        <v>0.1871258912357351</v>
+        <v>0.1763255073455133</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D186" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E186">
-        <v>0.1863803103964412</v>
+        <v>0.1753546583646908</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1855005365946742</v>
+        <v>0.1752070785889138</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
         <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1844679692832713</v>
+        <v>0.1746655862688253</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E189">
-        <v>0.1830759099631421</v>
+        <v>0.1745825690576552</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3688,13 +3688,13 @@
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E190">
-        <v>0.1815379914719248</v>
+        <v>0.1743563805955512</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1787662604088414</v>
+        <v>0.1742740613849372</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E192">
-        <v>0.178008031484723</v>
+        <v>0.1734460728521502</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
         <v>19</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E193">
-        <v>0.1764763148387806</v>
+        <v>0.172938289963124</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E194">
-        <v>0.1764746251085876</v>
+        <v>0.1725468107994241</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D195" t="s">
         <v>29</v>
       </c>
       <c r="E195">
-        <v>0.1755850088226398</v>
+        <v>0.1721596445124796</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1752297393448839</v>
+        <v>0.1721264660225387</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1735183820627727</v>
+        <v>0.1714481159404942</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D198" t="s">
         <v>29</v>
       </c>
       <c r="E198">
-        <v>0.1732241917416768</v>
+        <v>0.1710113079913544</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E199">
-        <v>0.1731400345389799</v>
+        <v>0.1695457368495863</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C200" t="s">
         <v>20</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E200">
-        <v>0.1726547974079579</v>
+        <v>0.1690490474959783</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E201">
-        <v>0.1722038374019897</v>
+        <v>0.1684577588134592</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1718861229011982</v>
+        <v>0.1669290318959572</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E203">
-        <v>0.1716992205911591</v>
+        <v>0.1657636210327068</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3926,13 +3926,13 @@
         <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D204" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1707938536290032</v>
+        <v>0.1654043277347697</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D205" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E205">
-        <v>0.1701019510246021</v>
+        <v>0.1651445647689539</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,7 +3957,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
         <v>18</v>
@@ -3966,7 +3966,7 @@
         <v>26</v>
       </c>
       <c r="E206">
-        <v>0.1696541058067366</v>
+        <v>0.1645177352712226</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1664758066827693</v>
+        <v>0.1635142087168782</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D208" t="s">
         <v>27</v>
       </c>
       <c r="E208">
-        <v>0.1651445647689539</v>
+        <v>0.1628655854961142</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E209">
-        <v>0.1646960046880828</v>
+        <v>0.1617044459999632</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E210">
-        <v>0.1634372032396762</v>
+        <v>0.1591013498567337</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E211">
-        <v>0.1628002538873423</v>
+        <v>0.1586138823085529</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1626675698721949</v>
+        <v>0.157879958103599</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
         <v>24</v>
       </c>
       <c r="D213" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E213">
-        <v>0.1625078028894539</v>
+        <v>0.1573325201097113</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.1617064048003327</v>
+        <v>0.1550406620952262</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D215" t="s">
         <v>28</v>
       </c>
       <c r="E215">
-        <v>0.1604118534886246</v>
+        <v>0.1539360110899364</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D216" t="s">
         <v>28</v>
       </c>
       <c r="E216">
-        <v>0.158974166584654</v>
+        <v>0.153769861717308</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D217" t="s">
         <v>28</v>
       </c>
       <c r="E217">
-        <v>0.1571986643069105</v>
+        <v>0.1514726028619885</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E218">
-        <v>0.1569534365855984</v>
+        <v>0.1503496365530592</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D219" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E219">
-        <v>0.1565033458900229</v>
+        <v>0.1496966739156007</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1559410717739397</v>
+        <v>0.149646978477266</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1559094109297731</v>
+        <v>0.148934572061568</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E222">
-        <v>0.1555673865857045</v>
+        <v>0.1484410944877871</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>19</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1549082396149447</v>
+        <v>0.1481610554983617</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E224">
-        <v>0.1548020643703939</v>
+        <v>0.1473342788276694</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,7 +4280,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
         <v>24</v>
@@ -4289,7 +4289,7 @@
         <v>28</v>
       </c>
       <c r="E225">
-        <v>0.1546736588750196</v>
+        <v>0.1467294125662762</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
         <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.1538382010318673</v>
+        <v>0.1458404363598922</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C227" t="s">
         <v>23</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1537155006547854</v>
+        <v>0.1456685570164294</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1530248547470329</v>
+        <v>0.1455360565265898</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D229" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E229">
-        <v>0.1528740321978553</v>
+        <v>0.1435765965198969</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E230">
-        <v>0.1527797259478361</v>
+        <v>0.1430282360840884</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D231" t="s">
         <v>28</v>
       </c>
       <c r="E231">
-        <v>0.1525262203677711</v>
+        <v>0.1430064837936064</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
         <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1520950419168638</v>
+        <v>0.1427670237797906</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D233" t="s">
         <v>26</v>
       </c>
       <c r="E233">
-        <v>0.1515354219438474</v>
+        <v>0.1425436297101058</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4436,13 +4436,13 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E234">
-        <v>0.1495647971514157</v>
+        <v>0.1424667151737001</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1493713105920264</v>
+        <v>0.1420570554291634</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4476,7 +4476,7 @@
         <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1483431065700264</v>
+        <v>0.1417013664416657</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E237">
-        <v>0.1477283763939684</v>
+        <v>0.1414509295115736</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1475379734471168</v>
+        <v>0.1409031470173911</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E239">
-        <v>0.1471760470073214</v>
+        <v>0.1407214855322017</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C240" t="s">
         <v>20</v>
       </c>
       <c r="D240" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>0.1471554744052991</v>
+        <v>0.1405026955374751</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E241">
-        <v>0.1467451490459055</v>
+        <v>0.1385996372941012</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D242" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E242">
-        <v>0.1459744957100759</v>
+        <v>0.1385978682622611</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D243" t="s">
         <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1457604398781042</v>
+        <v>0.1384763621569723</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C244" t="s">
         <v>21</v>
       </c>
       <c r="D244" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1457007259341776</v>
+        <v>0.13839576591743</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E245">
-        <v>0.1451865195518306</v>
+        <v>0.1380096189343016</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4640,13 +4640,13 @@
         <v>17</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
         <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1450269091443123</v>
+        <v>0.1371164089803766</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
       </c>
       <c r="E247">
-        <v>0.1443377912951533</v>
+        <v>0.1369936584425719</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E248">
-        <v>0.1429646618004661</v>
+        <v>0.1362553681223334</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D249" t="s">
         <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1429216951333574</v>
+        <v>0.1359232017451115</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
       </c>
       <c r="E250">
-        <v>0.1412437549648272</v>
+        <v>0.1349292905965807</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D251" t="s">
         <v>29</v>
       </c>
       <c r="E251">
-        <v>0.1412238606267408</v>
+        <v>0.1345245649659628</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E252">
-        <v>0.140868745531384</v>
+        <v>0.1341430389785223</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D253" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1405045076044015</v>
+        <v>0.1334981226414597</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D254" t="s">
         <v>29</v>
       </c>
       <c r="E254">
-        <v>0.1396206528855918</v>
+        <v>0.1331702003457962</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,7 +4790,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C255" t="s">
         <v>22</v>
@@ -4799,7 +4799,7 @@
         <v>26</v>
       </c>
       <c r="E255">
-        <v>0.1389665750949221</v>
+        <v>0.1323774803953552</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D256" t="s">
         <v>28</v>
       </c>
       <c r="E256">
-        <v>0.1388816182959836</v>
+        <v>0.1322946081031822</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.137282226354464</v>
+        <v>0.1322259951905291</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D258" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1372811414158412</v>
+        <v>0.1310021145134035</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E259">
-        <v>0.1370463424784637</v>
+        <v>0.1307435057477109</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C260" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D260" t="s">
         <v>29</v>
       </c>
       <c r="E260">
-        <v>0.1366231841200241</v>
+        <v>0.1305039724283451</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D261" t="s">
         <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1362849907888639</v>
+        <v>0.1303437493589848</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D262" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E262">
-        <v>0.1356240164770676</v>
+        <v>0.1301368641613383</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D263" t="s">
         <v>29</v>
       </c>
       <c r="E263">
-        <v>0.1356166417209558</v>
+        <v>0.1301181569270574</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4946,13 +4946,13 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1355245339918684</v>
+        <v>0.1301029367170772</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,7 +4960,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C265" t="s">
         <v>24</v>
@@ -4969,7 +4969,7 @@
         <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1347548127150419</v>
+        <v>0.1299416951436397</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E266">
-        <v>0.1347217064413093</v>
+        <v>0.1298867122520746</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C267" t="s">
         <v>25</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E267">
-        <v>0.1346064714333696</v>
+        <v>0.1287175402676658</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C268" t="s">
         <v>21</v>
       </c>
       <c r="D268" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1345668094966804</v>
+        <v>0.1286676366236829</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D269" t="s">
         <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1345649809301226</v>
+        <v>0.1273520032152472</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E270">
-        <v>0.1340041928484763</v>
+        <v>0.1269614460104954</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C271" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D271" t="s">
         <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1338064932557211</v>
+        <v>0.1256942986947949</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D272" t="s">
         <v>29</v>
       </c>
       <c r="E272">
-        <v>0.1335038918732387</v>
+        <v>0.12539242308449</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D273" t="s">
         <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1330762993702631</v>
+        <v>0.1248172989182691</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C274" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D274" t="s">
         <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1326623108225222</v>
+        <v>0.1244940975830093</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
         <v>26</v>
       </c>
       <c r="E275">
-        <v>0.1321302582345625</v>
+        <v>0.1240063325547197</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D276" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E276">
-        <v>0.1305204822805059</v>
+        <v>0.1237515068046469</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C277" t="s">
         <v>25</v>
       </c>
       <c r="D277" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E277">
-        <v>0.129517112851039</v>
+        <v>0.1214066965940228</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D278" t="s">
         <v>29</v>
       </c>
       <c r="E278">
-        <v>0.1293352459298353</v>
+        <v>0.1211906136213071</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D279" t="s">
         <v>26</v>
       </c>
       <c r="E279">
-        <v>0.128912927377235</v>
+        <v>0.1203078583468342</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C280" t="s">
         <v>21</v>
       </c>
       <c r="D280" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E280">
-        <v>0.128577254013219</v>
+        <v>0.1196417209233733</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5235,13 +5235,13 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D281" t="s">
         <v>28</v>
       </c>
       <c r="E281">
-        <v>0.1276576325558341</v>
+        <v>0.1190214545594532</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C282" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E282">
-        <v>0.1276333562644567</v>
+        <v>0.1186997284348027</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
         <v>23</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E283">
-        <v>0.1271305634032505</v>
+        <v>0.1184161818286956</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D284" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E284">
-        <v>0.1270011962552831</v>
+        <v>0.1174728110031781</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E285">
-        <v>0.1265990700938228</v>
+        <v>0.1168401799198557</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D286" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E286">
-        <v>0.125235111877759</v>
+        <v>0.1165184392939114</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E287">
-        <v>0.1246333323921951</v>
+        <v>0.1160452587402248</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C288" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D288" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E288">
-        <v>0.1238215582163579</v>
+        <v>0.1160102319369065</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D289" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1236228733427166</v>
+        <v>0.1153560893096878</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C290" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D290" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>0.1220266812992351</v>
+        <v>0.1152566691921202</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5405,13 +5405,13 @@
         <v>12</v>
       </c>
       <c r="C291" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D291" t="s">
         <v>29</v>
       </c>
       <c r="E291">
-        <v>0.1217840750219907</v>
+        <v>0.1146394871605615</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D292" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E292">
-        <v>0.1216010452061398</v>
+        <v>0.1144275150212465</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D293" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E293">
-        <v>0.1214782115056712</v>
+        <v>0.1142313375006022</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D294" t="s">
         <v>28</v>
       </c>
       <c r="E294">
-        <v>0.1214318322587177</v>
+        <v>0.1140977659085263</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C295" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D295" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1207724456503301</v>
+        <v>0.1138135131888161</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C296" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D296" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E296">
-        <v>0.1206773540017528</v>
+        <v>0.1132602239816256</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,7 +5504,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C297" t="s">
         <v>19</v>
@@ -5513,7 +5513,7 @@
         <v>28</v>
       </c>
       <c r="E297">
-        <v>0.1203016300698064</v>
+        <v>0.1132570134300302</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C298" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D298" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>0.1194056306299538</v>
+        <v>0.1126145764748688</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C299" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D299" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E299">
-        <v>0.1185426803234168</v>
+        <v>0.1120766288174614</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C300" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D300" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E300">
-        <v>0.1178102309668895</v>
+        <v>0.1116398894792107</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C301" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E301">
-        <v>0.1172701043304604</v>
+        <v>0.1112627819495786</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D302" t="s">
         <v>26</v>
       </c>
       <c r="E302">
-        <v>0.1172126956262369</v>
+        <v>0.1111081272586885</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C303" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E303">
-        <v>0.1164766572204572</v>
+        <v>0.1096797701720164</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D304" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E304">
-        <v>0.1160018025703127</v>
+        <v>0.1074711018576541</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C305" t="s">
         <v>23</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E305">
-        <v>0.1159996910233599</v>
+        <v>0.106782400107132</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D306" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E306">
-        <v>0.1157553423971914</v>
+        <v>0.1055260635755055</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5677,13 +5677,13 @@
         <v>12</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E307">
-        <v>0.1157353080654205</v>
+        <v>0.1048961029229602</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D308" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E308">
-        <v>0.1155480344703362</v>
+        <v>0.1047877454692462</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C309" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E309">
-        <v>0.1150279694411942</v>
+        <v>0.1046714172731933</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D310" t="s">
         <v>28</v>
       </c>
       <c r="E310">
-        <v>0.1145944535168065</v>
+        <v>0.1045304941705196</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C311" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E311">
-        <v>0.1140617762743038</v>
+        <v>0.1041920873709043</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D312" t="s">
         <v>29</v>
       </c>
       <c r="E312">
-        <v>0.1132896694427043</v>
+        <v>0.1037880148775007</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C313" t="s">
         <v>22</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E313">
-        <v>0.1130415609997732</v>
+        <v>0.1037247932842136</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D314" t="s">
         <v>29</v>
       </c>
       <c r="E314">
-        <v>0.1127080769746545</v>
+        <v>0.1033720240721879</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D315" t="s">
         <v>29</v>
       </c>
       <c r="E315">
-        <v>0.1111187365590783</v>
+        <v>0.1022593543385018</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5830,13 +5830,13 @@
         <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E316">
-        <v>0.1109369361573636</v>
+        <v>0.1020433322866816</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D317" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E317">
-        <v>0.110877360815719</v>
+        <v>0.1019567243917551</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C318" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E318">
-        <v>0.1093597311142286</v>
+        <v>0.101651752855341</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C319" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D319" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E319">
-        <v>0.1088421632820703</v>
+        <v>0.1008208072018625</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5898,13 +5898,13 @@
         <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D320" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E320">
-        <v>0.108641804373299</v>
+        <v>0.1006922451247897</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D321" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E321">
-        <v>0.107512394785192</v>
+        <v>0.09995604228781724</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C322" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D322" t="s">
         <v>28</v>
       </c>
       <c r="E322">
-        <v>0.1074655607140318</v>
+        <v>0.09993059079443492</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D323" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E323">
-        <v>0.1070266078404901</v>
+        <v>0.09980414149328383</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D324" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E324">
-        <v>0.1065998981339561</v>
+        <v>0.0984651288115586</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C325" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D325" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E325">
-        <v>0.1059641001437951</v>
+        <v>0.09756983052647085</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D326" t="s">
         <v>26</v>
       </c>
       <c r="E326">
-        <v>0.104075559000969</v>
+        <v>0.09726424241682709</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,7 +6014,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C327" t="s">
         <v>24</v>
@@ -6023,7 +6023,7 @@
         <v>26</v>
       </c>
       <c r="E327">
-        <v>0.1031217164907679</v>
+        <v>0.09508223361411712</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C328" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D328" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E328">
-        <v>0.102381127351142</v>
+        <v>0.0945953850523754</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C329" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D329" t="s">
         <v>28</v>
       </c>
       <c r="E329">
-        <v>0.1022359335030664</v>
+        <v>0.09441965970339325</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E330">
-        <v>0.1011798012060992</v>
+        <v>0.09394201248651438</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C331" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D331" t="s">
         <v>26</v>
       </c>
       <c r="E331">
-        <v>0.1006350501603381</v>
+        <v>0.09168856290371406</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D332" t="s">
         <v>26</v>
       </c>
       <c r="E332">
-        <v>0.1000975111186256</v>
+        <v>0.0887526981787219</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C333" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09965171301892466</v>
+        <v>0.08830169503249401</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,7 +6133,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C334" t="s">
         <v>21</v>
@@ -6142,7 +6142,7 @@
         <v>26</v>
       </c>
       <c r="E334">
-        <v>0.09932672123040386</v>
+        <v>0.08744985529269975</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C335" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D335" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E335">
-        <v>0.09883089087398994</v>
+        <v>0.08636337240184641</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E336">
-        <v>0.09862829147749104</v>
+        <v>0.08326669948278087</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C337" t="s">
         <v>21</v>
       </c>
       <c r="D337" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E337">
-        <v>0.09812483339219844</v>
+        <v>0.08249765633121001</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C338" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D338" t="s">
         <v>26</v>
       </c>
       <c r="E338">
-        <v>0.09796538547473059</v>
+        <v>0.0820349393442021</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6221,13 +6221,13 @@
         <v>16</v>
       </c>
       <c r="C339" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D339" t="s">
         <v>26</v>
       </c>
       <c r="E339">
-        <v>0.09597613575641871</v>
+        <v>0.08201142949290603</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C340" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D340" t="s">
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.09595396576991076</v>
+        <v>0.0811336765428555</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C341" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E341">
-        <v>0.09382739210218104</v>
+        <v>0.0806220703850298</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C342" t="s">
         <v>23</v>
       </c>
       <c r="D342" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E342">
-        <v>0.09294586493446701</v>
+        <v>0.0759778189247977</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C343" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D343" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E343">
-        <v>0.09157392338609224</v>
+        <v>0.07585714802614085</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C344" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D344" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E344">
-        <v>0.09063512614512509</v>
+        <v>0.0757526706520867</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,7 +6320,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C345" t="s">
         <v>21</v>
@@ -6329,7 +6329,7 @@
         <v>28</v>
       </c>
       <c r="E345">
-        <v>0.08986540761399808</v>
+        <v>0.07518816438791372</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D346" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E346">
-        <v>0.08515361614842618</v>
+        <v>0.07496053059001097</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C347" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E347">
-        <v>0.08487396730507234</v>
+        <v>0.0721568090020437</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C348" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D348" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E348">
-        <v>0.08268562814426431</v>
+        <v>0.07207417894246586</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C349" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E349">
-        <v>0.08207314005115067</v>
+        <v>0.07061583801618507</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C350" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D350" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E350">
-        <v>0.08168507578556691</v>
+        <v>0.07016007863420967</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C351" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D351" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E351">
-        <v>0.08110262742365702</v>
+        <v>0.06962643592117676</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C352" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D352" t="s">
         <v>26</v>
       </c>
       <c r="E352">
-        <v>0.0789975555766433</v>
+        <v>0.06759020645592702</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D353" t="s">
         <v>26</v>
       </c>
       <c r="E353">
-        <v>0.07761914202729517</v>
+        <v>0.0658451171945135</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C354" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D354" t="s">
         <v>28</v>
       </c>
       <c r="E354">
-        <v>0.07627791669737505</v>
+        <v>0.06554689598597838</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6493,13 +6493,13 @@
         <v>17</v>
       </c>
       <c r="C355" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D355" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E355">
-        <v>0.07584504958269421</v>
+        <v>0.06367633463891831</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D356" t="s">
         <v>26</v>
       </c>
       <c r="E356">
-        <v>0.07578315456349648</v>
+        <v>0.06294234555423869</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D357" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E357">
-        <v>0.07534900560892173</v>
+        <v>0.06230646006586626</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C358" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D358" t="s">
         <v>29</v>
       </c>
       <c r="E358">
-        <v>0.07410953311510328</v>
+        <v>0.06203818484081434</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C359" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D359" t="s">
         <v>29</v>
       </c>
       <c r="E359">
-        <v>0.07037716955390758</v>
+        <v>0.05982402473177369</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D360" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E360">
-        <v>0.06973713328213432</v>
+        <v>0.05840465676693329</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C361" t="s">
         <v>22</v>
       </c>
       <c r="D361" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E361">
-        <v>0.06959687964523779</v>
+        <v>0.05803132355595279</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C362" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D362" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.06872126154278529</v>
+        <v>0.05793129906864279</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C363" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D363" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E363">
-        <v>0.06786790130675606</v>
+        <v>0.05610149156666001</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C364" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D364" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E364">
-        <v>0.06701586207414836</v>
+        <v>0.05201113604856045</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,7 +6660,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C365" t="s">
         <v>23</v>
@@ -6669,7 +6669,7 @@
         <v>26</v>
       </c>
       <c r="E365">
-        <v>0.06681004719556519</v>
+        <v>0.05116182123499827</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C366" t="s">
         <v>21</v>
       </c>
       <c r="D366" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E366">
-        <v>0.06575338741682893</v>
+        <v>0.04690645906473789</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C367" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D367" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E367">
-        <v>0.06440051124577761</v>
+        <v>0.04516935622855145</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C368" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D368" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06434797597144652</v>
+        <v>0.0412292433691873</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C369" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D369" t="s">
         <v>26</v>
       </c>
       <c r="E369">
-        <v>0.05928241595135428</v>
+        <v>0.04067986330903461</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C370" t="s">
         <v>23</v>
       </c>
       <c r="D370" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E370">
-        <v>0.05872082237391135</v>
+        <v>0.03953570888390173</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C371" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D371" t="s">
         <v>26</v>
       </c>
       <c r="E371">
-        <v>0.05665641052462334</v>
+        <v>0.03600648062365958</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C372" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D372" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E372">
-        <v>0.0559328893611404</v>
+        <v>0.03210165386269284</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,7 +6796,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C373" t="s">
         <v>23</v>
@@ -6805,7 +6805,7 @@
         <v>26</v>
       </c>
       <c r="E373">
-        <v>0.05566322428385548</v>
+        <v>0.007986400207095252</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C374" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D374" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E374">
-        <v>0.05512448071146852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C375" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D375" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E375">
-        <v>0.05343975156043452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D376" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E376">
-        <v>0.05069524856918583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C377" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D377" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E377">
-        <v>0.05010407632343351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C378" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D378" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E378">
-        <v>0.04930259196601821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C379" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D379" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E379">
-        <v>0.04825981945069456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C380" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E380">
-        <v>0.0422496540242467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C381" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D381" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E381">
-        <v>0.03449952715002688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D382" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E382">
-        <v>0.02784880695981272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C383" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D383" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E383">
-        <v>0.02381553506420978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D384" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E384">
-        <v>0.02038430747956292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E385">
-        <v>0.01856305022869096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,7 +7017,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C386" t="s">
         <v>25</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C387" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,7 +7051,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C388" t="s">
         <v>21</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C389" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C391" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C392" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C394" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C395" t="s">
         <v>25</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C396" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
         <v>23</v>
@@ -7241,7 +7241,7 @@
         <v>16</v>
       </c>
       <c r="C399" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C400" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C401" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C402" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C403" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C405" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C406" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C407" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,7 +7391,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C408" t="s">
         <v>23</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C409" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,7 +7442,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C411" t="s">
         <v>23</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C412" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C413" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C414" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C415" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C416" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C417" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
